--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221008.473005264</v>
+        <v>2218463.286931978</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9833725.565585535</v>
+        <v>9833725.565585533</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>236.0147821672647</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.17672961320554</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>137.0779744069679</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>101.6257152931841</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>143.6666420308606</v>
       </c>
       <c r="U8" t="n">
-        <v>229.9558076925224</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>35.46527312190281</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.454476553030459</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15.76045942438941</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>53.26309598425066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756221</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892457</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.642703083319</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2458.750321152299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.981665882184</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>411.2797076961342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>264.3897601982238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.37176326827</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1765.409246327858</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>1407.143547721108</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>1021.355295122864</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>610.3693903332562</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>192.4055822314431</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332392</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>2520.971603332392</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>948.3796004312815</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353292</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374774</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920176</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1536.605668509834</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.4306457471</v>
+        <v>2083.766873276911</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2513.081919616205</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2395.816233281858</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.655459886239</v>
+        <v>2395.816233281858</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.592572542669</v>
+        <v>2064.753345938287</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.592572542669</v>
+        <v>1711.984690668173</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.592572542669</v>
+        <v>1338.518932407093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>948.3796004312815</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>121.5508014837215</v>
@@ -4890,13 +4890,13 @@
         <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>805.4096777044449</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1472.954077731455</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2022.390086484178</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>56.42225106584976</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>481.447947124485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>333.5348535420919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,19 +6777,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524077</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459568</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180499</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761965</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>160.408845469471</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>150.5889407883052</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>352.6670952725999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478235</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>277.2675446358076</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>149.7636788678794</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557219056</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516662</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489338</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
@@ -26335,25 +26335,25 @@
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752547</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682769</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682752</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893826</v>
+        <v>-287494.0895893825</v>
       </c>
       <c r="C6" t="n">
         <v>302473.789625162</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313676</v>
+        <v>146669.9835313678</v>
       </c>
       <c r="E6" t="n">
-        <v>-292671.4729961418</v>
+        <v>-292706.2109215783</v>
       </c>
       <c r="F6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="G6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592286</v>
       </c>
       <c r="H6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592287</v>
       </c>
       <c r="I6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="J6" t="n">
-        <v>301957.9991920716</v>
+        <v>301923.261266636</v>
       </c>
       <c r="K6" t="n">
-        <v>478381.2183846648</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="L6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="M6" t="n">
-        <v>354172.7076766061</v>
+        <v>354137.9697511705</v>
       </c>
       <c r="N6" t="n">
-        <v>478381.2183846648</v>
+        <v>478346.4804592293</v>
       </c>
       <c r="O6" t="n">
-        <v>478381.2183846644</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="P6" t="n">
-        <v>478381.2183846647</v>
+        <v>478346.4804592286</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>91.73747630287025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>139.1330726458454</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698089</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>186.8447983573893</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>46.98975772502826</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067481</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>68.98522108410538</v>
       </c>
       <c r="U8" t="n">
-        <v>21.1989785297782</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>117.2468235473297</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>216.1301767990643</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>353.3934907042774</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,22 +33497,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>348.9941109496808</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>185.9264357596134</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>533.9775360348269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>387.0550471886347</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010443</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>219.4190832899471</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,22 +37145,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
